--- a/test_data/test_data_8.xlsx
+++ b/test_data/test_data_8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/2018KAIST_FALL/CS408_전프/src/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="516" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="15220" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B:$B</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1242,7 +1250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1304,8 +1312,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1670,17 +1678,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="66.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="66.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -1691,18 +1699,18 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1713,29 +1721,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1831,55 +1839,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1887,23 +1895,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1943,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,15 +1967,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,15 +1991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2023,15 +2031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2039,23 +2047,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2071,23 +2079,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2127,15 +2135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -2159,23 +2167,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2205,17 +2213,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="96.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -2237,18 +2245,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2259,7 +2267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2279,7 +2287,7 @@
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -2327,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -2344,7 +2352,7 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -2361,7 +2369,7 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -2385,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2393,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2409,23 +2417,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -2441,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -2449,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -2473,15 +2481,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -2489,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -2505,15 +2513,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -2561,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2577,15 +2585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -2593,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -2609,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -2649,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -2657,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
@@ -2665,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
@@ -2673,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -2689,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>125</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -2705,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
@@ -2729,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
@@ -2753,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -2761,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -2777,15 +2785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
@@ -2801,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -2809,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
@@ -2817,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -2825,12 +2833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2847,17 +2855,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A122" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="93.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="93.83203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -2868,7 +2876,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -2879,18 +2887,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -2912,7 +2920,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -2921,7 +2929,7 @@
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -2929,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -2937,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -2945,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>155</v>
       </c>
@@ -2953,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -2969,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
@@ -2977,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -2985,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -2993,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>161</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>162</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -3017,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>164</v>
       </c>
@@ -3025,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>166</v>
       </c>
@@ -3041,15 +3049,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -3065,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>170</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>171</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
@@ -3089,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -3097,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>174</v>
       </c>
@@ -3105,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -3113,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>176</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>177</v>
       </c>
@@ -3129,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>178</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>179</v>
       </c>
@@ -3145,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>180</v>
       </c>
@@ -3153,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>181</v>
       </c>
@@ -3161,15 +3169,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>183</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>184</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>185</v>
       </c>
@@ -3193,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>186</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>187</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>188</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>189</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>190</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>191</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>192</v>
       </c>
@@ -3249,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>193</v>
       </c>
@@ -3257,31 +3265,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3289,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>198</v>
       </c>
@@ -3297,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>199</v>
       </c>
@@ -3305,31 +3313,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>203</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>204</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>205</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>206</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>207</v>
       </c>
@@ -3369,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>208</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>209</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>210</v>
       </c>
@@ -3393,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>211</v>
       </c>
@@ -3401,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>212</v>
       </c>
@@ -3409,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>213</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>214</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -3433,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>216</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>217</v>
       </c>
@@ -3449,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>220</v>
       </c>
@@ -3473,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>221</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>222</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>223</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>225</v>
       </c>
@@ -3513,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>226</v>
       </c>
@@ -3521,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>227</v>
       </c>
@@ -3529,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>225</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>228</v>
       </c>
@@ -3545,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>229</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>230</v>
       </c>
@@ -3561,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>231</v>
       </c>
@@ -3569,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>232</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>233</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>234</v>
       </c>
@@ -3593,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>235</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>235</v>
       </c>
@@ -3609,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>235</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>236</v>
       </c>
@@ -3625,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>237</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>238</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>239</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>240</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>241</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>242</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>243</v>
       </c>
@@ -3681,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>244</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>246</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>247</v>
       </c>
@@ -3713,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>249</v>
       </c>
@@ -3729,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>250</v>
       </c>
@@ -3737,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>251</v>
       </c>
@@ -3745,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>252</v>
       </c>
@@ -3753,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>253</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>254</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>255</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>256</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>257</v>
       </c>
@@ -3793,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>258</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>259</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>260</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>261</v>
       </c>
@@ -3825,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
@@ -3833,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>263</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>264</v>
       </c>
@@ -3849,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>265</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>266</v>
       </c>
@@ -3865,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>267</v>
       </c>
@@ -3873,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>269</v>
       </c>
@@ -3889,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>270</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>271</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>272</v>
       </c>
@@ -3913,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>273</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>274</v>
       </c>
@@ -3929,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>275</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>276</v>
       </c>
@@ -3945,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>277</v>
       </c>
@@ -3953,23 +3961,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>280</v>
       </c>
@@ -3977,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -3985,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>282</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>283</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>284</v>
       </c>
@@ -4024,16 +4032,16 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="170.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="170.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>285</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>287</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>289</v>
       </c>
@@ -4077,7 +4085,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>291</v>
       </c>
@@ -4088,7 +4096,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>293</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
@@ -4105,7 +4113,7 @@
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>295</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -4122,7 +4130,7 @@
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>297</v>
       </c>
@@ -4130,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>298</v>
       </c>
@@ -4139,7 +4147,7 @@
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>299</v>
       </c>
@@ -4147,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>300</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>301</v>
       </c>
@@ -4163,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>302</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>303</v>
       </c>
@@ -4179,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>304</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>305</v>
       </c>
@@ -4195,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>306</v>
       </c>
@@ -4203,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
@@ -4225,17 +4233,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="116.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="116.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>308</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>310</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>312</v>
       </c>
@@ -4279,7 +4287,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>314</v>
       </c>
@@ -4290,15 +4298,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>317</v>
       </c>
@@ -4307,7 +4315,7 @@
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -4315,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>319</v>
       </c>
@@ -4323,15 +4331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>321</v>
       </c>
@@ -4340,7 +4348,7 @@
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>322</v>
       </c>
@@ -4349,15 +4357,15 @@
       </c>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>324</v>
       </c>
@@ -4365,15 +4373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>326</v>
       </c>
@@ -4381,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>327</v>
       </c>
@@ -4389,15 +4397,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>329</v>
       </c>
@@ -4405,15 +4413,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>331</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>332</v>
       </c>
@@ -4429,15 +4437,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>334</v>
       </c>
@@ -4445,15 +4453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>336</v>
       </c>
@@ -4461,15 +4469,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>338</v>
       </c>
@@ -4477,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>339</v>
       </c>
@@ -4485,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>340</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>341</v>
       </c>
@@ -4501,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>342</v>
       </c>
@@ -4509,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>343</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>344</v>
       </c>
@@ -4525,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>346</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>347</v>
       </c>
@@ -4549,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>348</v>
       </c>
@@ -4557,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>349</v>
       </c>
@@ -4565,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
@@ -4573,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>351</v>
       </c>
@@ -4581,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>352</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>353</v>
       </c>
@@ -4597,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>354</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>355</v>
       </c>
@@ -4613,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>356</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>357</v>
       </c>
@@ -4629,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>358</v>
       </c>
@@ -4637,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>359</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>360</v>
       </c>
@@ -4653,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>361</v>
       </c>
@@ -4661,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>362</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>363</v>
       </c>
@@ -4695,15 +4703,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="66.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="46.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>364</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>366</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>369</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>371</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>373</v>
       </c>
@@ -4758,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>374</v>
       </c>
@@ -4766,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>375</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>376</v>
       </c>
@@ -4785,7 +4793,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>378</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>380</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>382</v>
       </c>
@@ -4818,7 +4826,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>384</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>385</v>
       </c>
@@ -4834,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>386</v>
       </c>
@@ -4842,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>387</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>388</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>389</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>390</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>391</v>
       </c>
@@ -4882,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>392</v>
       </c>
@@ -4890,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>393</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>394</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>395</v>
       </c>
